--- a/spliced/walkingToRunning/2023-03-27_19-47-31/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-31/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2825460433959961</v>
+        <v>8.406875610351562</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.671576976776123</v>
+        <v>-12.23353862762451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.079004168510437</v>
+        <v>5.69203519821167</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.809959862706719</v>
+        <v>-1.558092090690032</v>
       </c>
       <c r="G2" t="n">
-        <v>2.464425981623461</v>
+        <v>0.5108912702903179</v>
       </c>
       <c r="H2" t="n">
-        <v>2.473073566422869</v>
+        <v>1.960815749122113</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.406875610351562</v>
+        <v>-6.086453437805176</v>
       </c>
       <c r="D3" t="n">
-        <v>-12.23353862762451</v>
+        <v>-26.34650039672852</v>
       </c>
       <c r="E3" t="n">
-        <v>5.69203519821167</v>
+        <v>-14.22333812713623</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.558092090690032</v>
+        <v>-1.325494741062512</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5108912702903179</v>
+        <v>3.293620617210238</v>
       </c>
       <c r="H3" t="n">
-        <v>1.960815749122113</v>
+        <v>0.05309254307193068</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-6.086453437805176</v>
+        <v>5.984857559204102</v>
       </c>
       <c r="D4" t="n">
-        <v>-26.34650039672852</v>
+        <v>-12.02742099761963</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.22333812713623</v>
+        <v>-10.5483455657959</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.325494741062512</v>
+        <v>0.7431222165672173</v>
       </c>
       <c r="G4" t="n">
-        <v>3.293620617210238</v>
+        <v>1.402724462805504</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05309254307193068</v>
+        <v>-1.679901339475376</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.984857559204102</v>
+        <v>-9.330942153930664</v>
       </c>
       <c r="D5" t="n">
-        <v>-12.02742099761963</v>
+        <v>-13.30614566802978</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.5483455657959</v>
+        <v>-3.071574211120605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7431222165672173</v>
+        <v>2.074821671235908</v>
       </c>
       <c r="G5" t="n">
-        <v>1.402724462805504</v>
+        <v>-1.928939194355179</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.679901339475376</v>
+        <v>-2.52905666828155</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-9.330942153930664</v>
+        <v>-9.185368537902832</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.30614566802978</v>
+        <v>-8.196459770202637</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.071574211120605</v>
+        <v>-3.727138996124268</v>
       </c>
       <c r="F6" t="n">
-        <v>2.074821671235908</v>
+        <v>3.729947960492444</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.928939194355179</v>
+        <v>-3.12722979934469</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.52905666828155</v>
+        <v>-2.61889575291606</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-9.185368537902832</v>
+        <v>-11.09085464477539</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.196459770202637</v>
+        <v>-10.81818866729736</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.727138996124268</v>
+        <v>13.48275184631348</v>
       </c>
       <c r="F7" t="n">
-        <v>3.729947960492444</v>
+        <v>-1.309740603548675</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.12722979934469</v>
+        <v>-3.723056509656808</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.61889575291606</v>
+        <v>1.097793729559807</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-11.09085464477539</v>
+        <v>-5.257553100585938</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.81818866729736</v>
+        <v>-7.122329711914063</v>
       </c>
       <c r="E8" t="n">
-        <v>13.48275184631348</v>
+        <v>-5.412375450134277</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.309740603548675</v>
+        <v>-10.97659649895218</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.723056509656808</v>
+        <v>-5.284385065430541</v>
       </c>
       <c r="H8" t="n">
-        <v>1.097793729559807</v>
+        <v>1.629254709748432</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.257553100585938</v>
+        <v>5.622566699981689</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.122329711914063</v>
+        <v>-31.63553428649902</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.412375450134277</v>
+        <v>26.30605506896973</v>
       </c>
       <c r="F9" t="n">
-        <v>-10.97659649895218</v>
+        <v>-2.185527533003532</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.284385065430541</v>
+        <v>-9.327580903340284</v>
       </c>
       <c r="H9" t="n">
-        <v>1.629254709748432</v>
+        <v>0.09413627339798614</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.622566699981689</v>
+        <v>-31.68562698364257</v>
       </c>
       <c r="D10" t="n">
-        <v>-31.63553428649902</v>
+        <v>8.553699493408203</v>
       </c>
       <c r="E10" t="n">
-        <v>26.30605506896973</v>
+        <v>-25.76754570007324</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.185527533003532</v>
+        <v>4.113174119041981</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.327580903340284</v>
+        <v>-6.550736431936665</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09413627339798614</v>
+        <v>2.042246463808018</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-31.68562698364257</v>
+        <v>-25.48157119750977</v>
       </c>
       <c r="D11" t="n">
-        <v>8.553699493408203</v>
+        <v>-8.927703857421875</v>
       </c>
       <c r="E11" t="n">
-        <v>-25.76754570007324</v>
+        <v>-22.08453178405762</v>
       </c>
       <c r="F11" t="n">
-        <v>4.113174119041981</v>
+        <v>6.01964588419901</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.550736431936665</v>
+        <v>0.3379616459596031</v>
       </c>
       <c r="H11" t="n">
-        <v>2.042246463808018</v>
+        <v>-0.06193271655476229</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-25.48157119750977</v>
+        <v>3.429775714874268</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.927703857421875</v>
+        <v>-31.35194206237793</v>
       </c>
       <c r="E12" t="n">
-        <v>-22.08453178405762</v>
+        <v>6.574334621429443</v>
       </c>
       <c r="F12" t="n">
-        <v>6.01964588419901</v>
+        <v>2.943291461004813</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3379616459596031</v>
+        <v>0.339280297455288</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.06193271655476229</v>
+        <v>-1.968303656115117</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.429775714874268</v>
+        <v>-11.71933746337891</v>
       </c>
       <c r="D13" t="n">
-        <v>-31.35194206237793</v>
+        <v>-2.056103706359864</v>
       </c>
       <c r="E13" t="n">
-        <v>6.574334621429443</v>
+        <v>0.026987075805664</v>
       </c>
       <c r="F13" t="n">
-        <v>2.943291461004813</v>
+        <v>-1.721067187566203</v>
       </c>
       <c r="G13" t="n">
-        <v>0.339280297455288</v>
+        <v>2.170973975681572</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.968303656115117</v>
+        <v>0.1046053223239598</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-11.71933746337891</v>
+        <v>-4.002825736999512</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.056103706359864</v>
+        <v>1.024898052215576</v>
       </c>
       <c r="E14" t="n">
-        <v>0.026987075805664</v>
+        <v>5.117716789245605</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.721067187566203</v>
+        <v>-3.235397556453075</v>
       </c>
       <c r="G14" t="n">
-        <v>2.170973975681572</v>
+        <v>-3.147966375628718</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1046053223239598</v>
+        <v>-2.00323488411394</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.002825736999512</v>
+        <v>-2.464081764221191</v>
       </c>
       <c r="D15" t="n">
-        <v>1.024898052215576</v>
+        <v>-30.21155166625977</v>
       </c>
       <c r="E15" t="n">
-        <v>5.117716789245605</v>
+        <v>11.36835384368896</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.235397556453075</v>
+        <v>-0.1528169541683106</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.147966375628718</v>
+        <v>-4.183527493071799</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.00323488411394</v>
+        <v>0.4817037536102458</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.464081764221191</v>
+        <v>18.32395362854004</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.21155166625977</v>
+        <v>2.226233005523682</v>
       </c>
       <c r="E16" t="n">
-        <v>11.36835384368896</v>
+        <v>-8.703231811523438</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1528169541683106</v>
+        <v>3.802701440829669</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.183527493071799</v>
+        <v>-4.169063769497901</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4817037536102458</v>
+        <v>2.565167040500834</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18.32395362854004</v>
+        <v>-23.21679878234864</v>
       </c>
       <c r="D17" t="n">
-        <v>2.226233005523682</v>
+        <v>-14.6329288482666</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.703231811523438</v>
+        <v>-21.63663291931152</v>
       </c>
       <c r="F17" t="n">
-        <v>3.802701440829669</v>
+        <v>3.380828262532809</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.169063769497901</v>
+        <v>-6.121044473740666</v>
       </c>
       <c r="H17" t="n">
-        <v>2.565167040500834</v>
+        <v>0.1218900376732013</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-23.21679878234864</v>
+        <v>-1.97741436958313</v>
       </c>
       <c r="D18" t="n">
-        <v>-14.6329288482666</v>
+        <v>-62.5509033203125</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.63663291931152</v>
+        <v>-12.70803451538086</v>
       </c>
       <c r="F18" t="n">
-        <v>3.380828262532809</v>
+        <v>-0.8874874531643746</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.121044473740666</v>
+        <v>-2.666994254565963</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1218900376732013</v>
+        <v>1.347052811997586</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.97741436958313</v>
+        <v>-14.78749465942383</v>
       </c>
       <c r="D19" t="n">
-        <v>-62.5509033203125</v>
+        <v>9.399082183837891</v>
       </c>
       <c r="E19" t="n">
-        <v>-12.70803451538086</v>
+        <v>0.7060952186584473</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8874874531643746</v>
+        <v>-9.827318640588476</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.666994254565963</v>
+        <v>1.861103559581952</v>
       </c>
       <c r="H19" t="n">
-        <v>1.347052811997586</v>
+        <v>7.985667338648988</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-14.78749465942383</v>
+        <v>-45.69917297363281</v>
       </c>
       <c r="D20" t="n">
-        <v>9.399082183837891</v>
+        <v>-85.84348297119141</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7060952186584473</v>
+        <v>16.09267616271973</v>
       </c>
       <c r="F20" t="n">
-        <v>-9.827318640588476</v>
+        <v>-2.809762274177507</v>
       </c>
       <c r="G20" t="n">
-        <v>1.861103559581952</v>
+        <v>2.697998086225652</v>
       </c>
       <c r="H20" t="n">
-        <v>7.985667338648988</v>
+        <v>0.7576566992455813</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-45.69917297363281</v>
+        <v>21.77816009521484</v>
       </c>
       <c r="D21" t="n">
-        <v>-85.84348297119141</v>
+        <v>1.36038064956665</v>
       </c>
       <c r="E21" t="n">
-        <v>16.09267616271973</v>
+        <v>-24.16020965576172</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.809762274177507</v>
+        <v>4.037018136492105</v>
       </c>
       <c r="G21" t="n">
-        <v>2.697998086225652</v>
+        <v>-2.376052915471196</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7576566992455813</v>
+        <v>-2.018577781695872</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-22.23860740661621</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.703294038772583</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-13.579345703125</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.506457075331898</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.59009868774606</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.0266988300582125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-28.10436058044434</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-46.36766815185547</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13.63930892944336</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.450691733545613</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.12102667965644</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.359096467929008</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2610459327697754</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.697724103927612</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.434926986694336</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.604418606434045</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8684271347926146</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.2955643468111461</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>8.421352386474609</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.679108619689941</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.642993927001953</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.740167403684082</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2.81262268075148</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.7813068606610404</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12.62557125091553</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-29.58051681518555</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-5.874727249145508</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1918180868463897</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.700260833629038</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-2.898207216586866</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>17.53614234924316</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.259291648864746</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4.211094856262207</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.375462932494072</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.835833433762467</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-3.255329332305403</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-11.21247386932373</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-9.254820823669434</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-18.96420669555664</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.974689759097054</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-8.058607795863464</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3.702626524619664</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2897729873657226</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-15.05545616149902</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21.06244659423828</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.054417246753779</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-4.126515001348001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.594708632497015</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-14.59784603118896</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.85461044311523</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.184048175811768</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-4.560519280942842</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.439459521793583</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.084467855471887</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-74.86586761474609</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-84.31977081298828</v>
+      </c>
+      <c r="E31" t="n">
+        <v>76.46285247802734</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.622863769531381</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.112303316593201</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.16303658485438</v>
       </c>
     </row>
   </sheetData>
